--- a/catalogoPlaza.xlsx
+++ b/catalogoPlaza.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DD1C4A5625FDA4777A8DEDE93E4C2683EDF32" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{513E6B6D-21F3-440E-A49F-3018DDAD463D}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="6_{08E79F67-B69A-4A8F-8577-019900AC34FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D17FBA58-4ACE-44F7-A7FF-4B22E14C07F1}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Offsite" sheetId="1" r:id="rId1"/>
+    <sheet name="Tours" sheetId="2" r:id="rId2"/>
+    <sheet name="Sistema" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>ACAPULCO</t>
   </si>
@@ -92,13 +94,70 @@
   </si>
   <si>
     <t>PLAZA AJUSTE</t>
+  </si>
+  <si>
+    <t>NUEVO VALLARTA</t>
+  </si>
+  <si>
+    <t>PE?ASCO</t>
+  </si>
+  <si>
+    <t>OFF SITE CANCUN MEX</t>
+  </si>
+  <si>
+    <t>PLAN DE DESCANSO</t>
+  </si>
+  <si>
+    <t>Nvo Vallarta GM Nal</t>
+  </si>
+  <si>
+    <t>EmpresaNombre</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>SISTEMA On (f) Agrup Rentas</t>
+  </si>
+  <si>
+    <t>Directa</t>
+  </si>
+  <si>
+    <t>Foraneas</t>
+  </si>
+  <si>
+    <t>Foránea</t>
+  </si>
+  <si>
+    <t>In House</t>
+  </si>
+  <si>
+    <t>In house</t>
+  </si>
+  <si>
+    <t>Out House</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Venta directa</t>
+  </si>
+  <si>
+    <t>FORANEA</t>
+  </si>
+  <si>
+    <t>IN-HOUSE</t>
+  </si>
+  <si>
+    <t>STREET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +165,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,12 +194,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -603,4 +694,188 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8CF707-A19A-42B7-820C-9B9CDEB2C050}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE905A-AC7F-4205-8AF5-5F8F0553EDF1}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/catalogoPlaza.xlsx
+++ b/catalogoPlaza.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="33" documentId="6_{08E79F67-B69A-4A8F-8577-019900AC34FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D17FBA58-4ACE-44F7-A7FF-4B22E14C07F1}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offsite" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8CF707-A19A-42B7-820C-9B9CDEB2C050}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE905A-AC7F-4205-8AF5-5F8F0553EDF1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
